--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/24677315/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/24677315/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9808900356292725</v>
+        <v>0.5089290738105774</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9803667664527893</v>
+        <v>0.5086888074874878</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.825711190700531</v>
+        <v>0.3446291983127594</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.980713427066803</v>
+        <v>0.5092455148696899</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9810255169868469</v>
+        <v>0.509492814540863</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9806930422782898</v>
+        <v>0.5093701481819153</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9802390336990356</v>
+        <v>0.5092390775680542</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9806930422782898</v>
+        <v>0.5093701481819153</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8008680939674377</v>
+        <v>0.3164770603179932</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9808998107910156</v>
+        <v>0.5099546909332275</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9268925189971924</v>
+        <v>0.3169611990451813</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9805797934532166</v>
+        <v>0.5090849995613098</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9807201027870178</v>
+        <v>0.5091038346290588</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9806759357452393</v>
+        <v>0.5092167854309082</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9808985590934753</v>
+        <v>0.509308934211731</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4007609486579895</v>
+        <v>0.2339599281549454</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9808573722839355</v>
+        <v>0.5095474123954773</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9805548191070557</v>
+        <v>0.5095821022987366</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9807298183441162</v>
+        <v>0.5087193846702576</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.980573832988739</v>
+        <v>0.5091383457183838</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9807509183883667</v>
+        <v>0.5095903277397156</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.980751633644104</v>
+        <v>0.5096936225891113</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8257884979248047</v>
+        <v>0.3424892723560333</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4060566127300262</v>
+        <v>0.2333839237689972</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9806855916976929</v>
+        <v>0.5088786482810974</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9804390668869019</v>
+        <v>0.5087340474128723</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9810557961463928</v>
+        <v>0.5092499852180481</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9807209968566895</v>
+        <v>0.508903443813324</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9810709357261658</v>
+        <v>0.509507954120636</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9164429306983948</v>
+        <v>0.3868331909179688</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.92641681432724</v>
+        <v>0.3164909482002258</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9259154796600342</v>
+        <v>0.3160210847854614</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9808809757232666</v>
+        <v>0.5095021724700928</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9261997938156128</v>
+        <v>0.3164718449115753</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9810041785240173</v>
+        <v>0.5098763704299927</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9256936311721802</v>
+        <v>0.3161945044994354</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9162776470184326</v>
+        <v>0.3827282190322876</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9808197617530823</v>
+        <v>0.5097475647926331</v>
       </c>
     </row>
     <row r="42">
@@ -1603,14 +1603,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.898576021194458</v>
+        <v>0.3340393900871277</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9166489839553833</v>
+        <v>0.3870891332626343</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9259549379348755</v>
+        <v>0.3160492479801178</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9172559976577759</v>
+        <v>0.3864105939865112</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9154081344604492</v>
+        <v>0.3866480886936188</v>
       </c>
     </row>
     <row r="47">
@@ -1743,14 +1743,14 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7349017262458801</v>
+        <v>0.3376522958278656</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9150077700614929</v>
+        <v>0.3860971033573151</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.980523407459259</v>
+        <v>0.5096303820610046</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9154222011566162</v>
+        <v>0.3861485719680786</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9130741953849792</v>
+        <v>0.3854403495788574</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9808659553527832</v>
+        <v>0.5087566375732422</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9154222011566162</v>
+        <v>0.3861485719680786</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9151736497879028</v>
+        <v>0.3858382403850555</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9809041619300842</v>
+        <v>0.5094799399375916</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9808589816093445</v>
+        <v>0.5094205737113953</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9809803366661072</v>
+        <v>0.5098673105239868</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9260510206222534</v>
+        <v>0.3167499899864197</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9804279208183289</v>
+        <v>0.5096104741096497</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9806443452835083</v>
+        <v>0.5091468095779419</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9805089235305786</v>
+        <v>0.5093773007392883</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9810256361961365</v>
+        <v>0.5097948312759399</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9260579347610474</v>
+        <v>0.3159632682800293</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9083971381187439</v>
+        <v>0.3050546646118164</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9259629845619202</v>
+        <v>0.3165473341941833</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9259629845619202</v>
+        <v>0.3165473341941833</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9261950850486755</v>
+        <v>0.3159418702125549</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9259629845619202</v>
+        <v>0.3165473341941833</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7976288795471191</v>
+        <v>0.318934291601181</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9808263778686523</v>
+        <v>0.5094262957572937</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.926120400428772</v>
+        <v>0.3169738352298737</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9806839823722839</v>
+        <v>0.5080462694168091</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9260991811752319</v>
+        <v>0.3167588114738464</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.980740487575531</v>
+        <v>0.5091419219970703</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9807652831077576</v>
+        <v>0.509318470954895</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9260991811752319</v>
+        <v>0.3167588114738464</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9807866215705872</v>
+        <v>0.5089074969291687</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9260991811752319</v>
+        <v>0.3167588114738464</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9807764887809753</v>
+        <v>0.5096229910850525</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9260432124137878</v>
+        <v>0.3167995810508728</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9807204604148865</v>
+        <v>0.5088734030723572</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9260432124137878</v>
+        <v>0.3167995810508728</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9806735515594482</v>
+        <v>0.5078139305114746</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9806735515594482</v>
+        <v>0.5078139305114746</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9809853434562683</v>
+        <v>0.5099530220031738</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9262528419494629</v>
+        <v>0.3169170618057251</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.980618417263031</v>
+        <v>0.5094102025032043</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9261382222175598</v>
+        <v>0.3167677819728851</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9808636903762817</v>
+        <v>0.5088642239570618</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9809328317642212</v>
+        <v>0.509100615978241</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9809048175811768</v>
+        <v>0.5091049075126648</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9809101223945618</v>
+        <v>0.5091060996055603</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9809322357177734</v>
+        <v>0.5090852379798889</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9809167981147766</v>
+        <v>0.509084939956665</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9809073805809021</v>
+        <v>0.5090956091880798</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9810499548912048</v>
+        <v>0.5098748803138733</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.4090805649757385</v>
+        <v>0.2600036859512329</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9805672764778137</v>
+        <v>0.5095584988594055</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9810124635696411</v>
+        <v>0.5088867545127869</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9806200265884399</v>
+        <v>0.5086892247200012</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.980765163898468</v>
+        <v>0.5095748901367188</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8193866014480591</v>
+        <v>0.3417379260063171</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.979423999786377</v>
+        <v>0.507876455783844</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9807581901550293</v>
+        <v>0.5092049837112427</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8023945093154907</v>
+        <v>0.3198383152484894</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9805893898010254</v>
+        <v>0.5087064504623413</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9174779057502747</v>
+        <v>0.3871715068817139</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8218147754669189</v>
+        <v>0.3432494699954987</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9807355999946594</v>
+        <v>0.508849561214447</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9167283773422241</v>
+        <v>0.386917918920517</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9170646667480469</v>
+        <v>0.3870907425880432</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9262446761131287</v>
+        <v>0.3167234361171722</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9810661673545837</v>
+        <v>0.5097955465316772</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9262715578079224</v>
+        <v>0.3167126476764679</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9803745150566101</v>
+        <v>0.5077635049819946</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9806033968925476</v>
+        <v>0.5083643198013306</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6315710544586182</v>
+        <v>0.3169213235378265</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9807491302490234</v>
+        <v>0.5092926621437073</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8007528781890869</v>
+        <v>0.3194045424461365</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9803799390792847</v>
+        <v>0.5096551775932312</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8007528781890869</v>
+        <v>0.3194045424461365</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9803799390792847</v>
+        <v>0.5096551775932312</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8007528781890869</v>
+        <v>0.3194045424461365</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9805260300636292</v>
+        <v>0.509545624256134</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9784584641456604</v>
+        <v>0.5087057948112488</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9809221625328064</v>
+        <v>0.5091879963874817</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9807040691375732</v>
+        <v>0.5086423754692078</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9806283712387085</v>
+        <v>0.5083733201026917</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9155312180519104</v>
+        <v>0.387139230966568</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9807509183883667</v>
+        <v>0.5093079209327698</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9807478189468384</v>
+        <v>0.5090910196304321</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9811182618141174</v>
+        <v>0.5093831419944763</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9803651571273804</v>
+        <v>0.5077123641967773</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9810307025909424</v>
+        <v>0.5092769265174866</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.980589747428894</v>
+        <v>0.5083707571029663</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.980678915977478</v>
+        <v>0.5083421468734741</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9810298681259155</v>
+        <v>0.5088649988174438</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7330725789070129</v>
+        <v>0.506284773349762</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9258038997650146</v>
+        <v>0.316684901714325</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.980430543422699</v>
+        <v>0.5092430710792542</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9258038997650146</v>
+        <v>0.316684901714325</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9805669188499451</v>
+        <v>0.5078424215316772</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.7976288795471191</v>
+        <v>0.318934291601181</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9805474281311035</v>
+        <v>0.5088939070701599</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9261531233787537</v>
+        <v>0.3167158961296082</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.980661153793335</v>
+        <v>0.506977915763855</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="152">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9805229306221008</v>
+        <v>0.3438136577606201</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9808854460716248</v>
+        <v>0.5098282694816589</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8258213400840759</v>
+        <v>0.344244122505188</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9809437394142151</v>
+        <v>0.509720504283905</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8260886669158936</v>
+        <v>0.3430680632591248</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9805662631988525</v>
+        <v>0.5092360973358154</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8266512155532837</v>
+        <v>0.3429883122444153</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.980589747428894</v>
+        <v>0.5092910528182983</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9264534711837769</v>
+        <v>0.3170600831508636</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9807199835777283</v>
+        <v>0.5088322758674622</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9797913432121277</v>
+        <v>0.5084809064865112</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9807162880897522</v>
+        <v>0.5084006786346436</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.925981879234314</v>
+        <v>0.3166815042495728</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9809808731079102</v>
+        <v>0.5099482536315918</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9807446599006653</v>
+        <v>0.5078220367431641</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9154549837112427</v>
+        <v>0.3849093019962311</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9262858033180237</v>
+        <v>0.3165185749530792</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9154549837112427</v>
+        <v>0.3849093019962311</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9262481331825256</v>
+        <v>0.3166496455669403</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9807829260826111</v>
+        <v>0.5089654326438904</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9806093573570251</v>
+        <v>0.5084097385406494</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9807072281837463</v>
+        <v>0.5083503127098083</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9806093573570251</v>
+        <v>0.5084097385406494</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9806093573570251</v>
+        <v>0.5084097385406494</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9807072281837463</v>
+        <v>0.5083503127098083</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9807280302047729</v>
+        <v>0.5089471340179443</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9804365038871765</v>
+        <v>0.508014440536499</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9809390306472778</v>
+        <v>0.5092786550521851</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9810202717781067</v>
+        <v>0.5096444487571716</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9811572432518005</v>
+        <v>0.5095016360282898</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.8063513040542603</v>
+        <v>0.3202711343765259</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9808736443519592</v>
+        <v>0.5097635984420776</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9806961417198181</v>
+        <v>0.5098223090171814</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9804187417030334</v>
+        <v>0.5094469785690308</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9806451201438904</v>
+        <v>0.5093122720718384</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9806779026985168</v>
+        <v>0.508912980556488</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9805139899253845</v>
+        <v>0.5091007947921753</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9805365800857544</v>
+        <v>0.5091331601142883</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4104354679584503</v>
+        <v>0.2609663903713226</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9809350371360779</v>
+        <v>0.5094835758209229</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9809897541999817</v>
+        <v>0.5092841982841492</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.8011136054992676</v>
+        <v>0.3192086517810822</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.916165292263031</v>
+        <v>0.387264221906662</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9808583855628967</v>
+        <v>0.509791374206543</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9804505109786987</v>
+        <v>0.509294867515564</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9804177284240723</v>
+        <v>0.5093987584114075</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9807840585708618</v>
+        <v>0.5095691680908203</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9154187440872192</v>
+        <v>0.3855812549591064</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9809367060661316</v>
+        <v>0.5095863938331604</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9810805916786194</v>
+        <v>0.509605884552002</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9811359047889709</v>
+        <v>0.5092411637306213</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9153528809547424</v>
+        <v>0.384635865688324</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9804978370666504</v>
+        <v>0.5095400214195251</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9808699488639832</v>
+        <v>0.5084071159362793</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4070799946784973</v>
+        <v>0.2632696032524109</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9808793663978577</v>
+        <v>0.508004903793335</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2871899902820587</v>
+        <v>0.221578449010849</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9809123873710632</v>
+        <v>0.5093098282814026</v>
       </c>
     </row>
   </sheetData>
